--- a/ctr-alt-defeat-MS1-P1-A.xlsx
+++ b/ctr-alt-defeat-MS1-P1-A.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="149">
   <si>
     <t>Team Name</t>
   </si>
@@ -134,10 +134,10 @@
     <t>I can include them on the platform</t>
   </si>
   <si>
-    <t>1 or 2 or 3</t>
-  </si>
-  <si>
-    <t>Student/Faculty member/SCAD office member</t>
+    <t>1/2/3/4</t>
+  </si>
+  <si>
+    <t>Student/Faculty member/SCAD office member/Company</t>
   </si>
   <si>
     <t>Login</t>
@@ -170,171 +170,162 @@
     <t>Know more details about internships</t>
   </si>
   <si>
-    <t xml:space="preserve">Profile and Identity </t>
+    <t>Student/ Company/SCAD office member/Faculty member</t>
+  </si>
+  <si>
+    <t>Change my password</t>
+  </si>
+  <si>
+    <t>I can be able to perform future logins</t>
+  </si>
+  <si>
+    <t>Logout from my account</t>
+  </si>
+  <si>
+    <t>I can keep my personal info secure</t>
+  </si>
+  <si>
+    <t>View my enrollment history</t>
+  </si>
+  <si>
+    <t>I can keep track of internships i applied to so far</t>
+  </si>
+  <si>
+    <t>Reject student profiles automatically based on preset questions prior to student application submission</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I can speed up the filteration process</t>
+  </si>
+  <si>
+    <t>Print company's report on my performance</t>
+  </si>
+  <si>
+    <t>I can include it utilize it in my physical interviews</t>
+  </si>
+  <si>
+    <t>It will be essential for the intern in the physical interviews to show the hardcopy to the recruiter</t>
+  </si>
+  <si>
+    <t>Internship Search and Recruitment</t>
+  </si>
+  <si>
+    <t>Comment on internship posts</t>
+  </si>
+  <si>
+    <t>I can state inquiries/share my experience</t>
+  </si>
+  <si>
+    <t>Sort search results</t>
+  </si>
+  <si>
+    <t>They fit my preferences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Save posts </t>
+  </si>
+  <si>
+    <t>I can get back to them later</t>
+  </si>
+  <si>
+    <t>View posted internship opportunities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can know their details/apply </t>
+  </si>
+  <si>
+    <t>View status of internships i applied to</t>
+  </si>
+  <si>
+    <t>Keep up with my enrolled in applications</t>
+  </si>
+  <si>
+    <t>Be able to recieve student's applications</t>
+  </si>
+  <si>
+    <t>I can start the choosing process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Be able to discard all rejected applications all at once </t>
+  </si>
+  <si>
+    <t xml:space="preserve">All accepted appliactions are shown to me </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rejected applications are not shown in the interface for the recruiter </t>
+  </si>
+  <si>
+    <t>Be able to accept/reject interns' applications</t>
+  </si>
+  <si>
+    <t>I can choose the needed interns</t>
+  </si>
+  <si>
+    <t>Final acceptance is decided after interview phase</t>
+  </si>
+  <si>
+    <t>Be able to email all interns at once</t>
+  </si>
+  <si>
+    <t>Not to waste time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write one email and send it to all interns at once </t>
+  </si>
+  <si>
+    <t>Be able to recieve concerns from interns</t>
+  </si>
+  <si>
+    <t>I can reply to them</t>
+  </si>
+  <si>
+    <t>Be able to update status of each intern</t>
+  </si>
+  <si>
+    <t>Interns can be informed about their registeration status</t>
+  </si>
+  <si>
+    <t>automatically connect to company's social media accounts</t>
+  </si>
+  <si>
+    <t>I can gain more insights on the company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Through a redirection link </t>
+  </si>
+  <si>
+    <t>Upload pdf containing list of internships opportunities</t>
+  </si>
+  <si>
+    <t>The students can go through it</t>
+  </si>
+  <si>
+    <t>Be able to search for specific company</t>
+  </si>
+  <si>
+    <t>Reach the desired company</t>
+  </si>
+  <si>
+    <t>Be able to filter search results</t>
+  </si>
+  <si>
+    <t>Not to waste time and to find the most suitable internship position</t>
+  </si>
+  <si>
+    <t>Be able to post internships</t>
+  </si>
+  <si>
+    <t>The students can view them</t>
+  </si>
+  <si>
+    <t>Be able to broadcast available internships to students</t>
+  </si>
+  <si>
+    <t>The students can apply to them</t>
   </si>
   <si>
     <t xml:space="preserve">Company </t>
   </si>
   <si>
-    <t xml:space="preserve">Login </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I can access the platform </t>
-  </si>
-  <si>
-    <t>1/2/3/4</t>
-  </si>
-  <si>
-    <t>Change my password</t>
-  </si>
-  <si>
-    <t>I can be able to perform future logins</t>
-  </si>
-  <si>
-    <t>Logout from my account</t>
-  </si>
-  <si>
-    <t>I can keep my personal info secure</t>
-  </si>
-  <si>
-    <t>View my enrollment history</t>
-  </si>
-  <si>
-    <t>I can keep track of internships i applied to so far</t>
-  </si>
-  <si>
-    <t>Reject student profiles automatically based on preset questions prior to student application submission</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I can speed up the filteration process</t>
-  </si>
-  <si>
-    <t>Print company's report on my performance</t>
-  </si>
-  <si>
-    <t>I can include it utilize it in my physical interviews</t>
-  </si>
-  <si>
-    <t>It will be essential for the intern in the physical interviews to show the hardcopy to the recruiter</t>
-  </si>
-  <si>
-    <t>Internship Search and Recruitment</t>
-  </si>
-  <si>
-    <t>Comment on internship posts</t>
-  </si>
-  <si>
-    <t>I can state inquiries/share my experience</t>
-  </si>
-  <si>
-    <t>Sort search results</t>
-  </si>
-  <si>
-    <t>They fit my preferences</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Save posts </t>
-  </si>
-  <si>
-    <t>I can get back to them later</t>
-  </si>
-  <si>
-    <t>View posted internship opportunities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I can know their details/apply </t>
-  </si>
-  <si>
-    <t>View status of internships i applied to</t>
-  </si>
-  <si>
-    <t>Keep up with my enrolled in applications</t>
-  </si>
-  <si>
-    <t>Be able to recieve student's applications</t>
-  </si>
-  <si>
-    <t>I can start the choosing process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Be able to discard all rejected applications all at once </t>
-  </si>
-  <si>
-    <t xml:space="preserve">All accepted appliactions are shown to me </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rejected applications are not shown in the interface for the recruiter </t>
-  </si>
-  <si>
-    <t>Be able to accept/reject interns' applications</t>
-  </si>
-  <si>
-    <t>I can choose the needed interns</t>
-  </si>
-  <si>
-    <t>Final acceptance is decided after interview phase</t>
-  </si>
-  <si>
-    <t>Be able to email all interns at once</t>
-  </si>
-  <si>
-    <t>Not to waste time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write one email and send it to all interns at once </t>
-  </si>
-  <si>
-    <t>Be able to recieve concerns from interns</t>
-  </si>
-  <si>
-    <t>I can reply to them</t>
-  </si>
-  <si>
-    <t>Be able to update status of each intern</t>
-  </si>
-  <si>
-    <t>Interns can be informed about their registeration status</t>
-  </si>
-  <si>
-    <t>automatcally connect to company's social media account</t>
-  </si>
-  <si>
-    <t>I can gain more insights about them</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Through a redirection link </t>
-  </si>
-  <si>
-    <t>Upload pdf containing list of internships opportunities</t>
-  </si>
-  <si>
-    <t>The students can go through it</t>
-  </si>
-  <si>
-    <t>Be able to search for specific company</t>
-  </si>
-  <si>
-    <t>Reach the desired company</t>
-  </si>
-  <si>
-    <t>Be able to filter search results</t>
-  </si>
-  <si>
-    <t>Not to waste time and to find the most suitable internship position</t>
-  </si>
-  <si>
-    <t>Be able to post internships</t>
-  </si>
-  <si>
-    <t>The students can view them</t>
-  </si>
-  <si>
-    <t>Be able to broadcast available internships to students</t>
-  </si>
-  <si>
-    <t>The students can apply to them</t>
-  </si>
-  <si>
     <t>Be able to contact Scad office</t>
   </si>
   <si>
@@ -459,6 +450,15 @@
   </si>
   <si>
     <t xml:space="preserve">Students be able to edit their submited reports </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Be able to give badges to students </t>
+  </si>
+  <si>
+    <t>I can encourage students who stood out in fullfilling their internship requirments</t>
+  </si>
+  <si>
+    <t>badge is sent in the form of a link to interns who have completed their internship through the direct messaging feature</t>
   </si>
 </sst>
 </file>
@@ -2595,22 +2595,22 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="26">
-        <v>3.0</v>
+        <v>29</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>40</v>
       </c>
       <c r="C12" s="27">
         <v>10.0</v>
       </c>
       <c r="D12" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="F12" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>55</v>
       </c>
       <c r="G12" s="28"/>
       <c r="H12" s="20"/>
@@ -2637,20 +2637,20 @@
       <c r="A13" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="26" t="s">
-        <v>56</v>
+      <c r="B13" s="26">
+        <v>6.0</v>
       </c>
       <c r="C13" s="27">
         <v>11.0</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G13" s="28"/>
       <c r="H13" s="20"/>
@@ -2678,19 +2678,19 @@
         <v>29</v>
       </c>
       <c r="B14" s="26">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="C14" s="27">
         <v>12.0</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G14" s="28"/>
       <c r="H14" s="20"/>
@@ -2718,19 +2718,19 @@
         <v>29</v>
       </c>
       <c r="B15" s="26">
-        <v>6.0</v>
+        <v>33.0</v>
       </c>
       <c r="C15" s="27">
         <v>13.0</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G15" s="28"/>
       <c r="H15" s="20"/>
@@ -2753,94 +2753,94 @@
       <c r="Y15" s="20"/>
       <c r="Z15" s="20"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="26" t="s">
+    <row r="16" ht="17.25" customHeight="1">
+      <c r="A16" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="26">
-        <v>34.0</v>
-      </c>
-      <c r="C16" s="27">
+      <c r="B16" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="30">
         <v>14.0</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="32"/>
+      <c r="Y16" s="32"/>
+      <c r="Z16" s="32"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="28"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="20"/>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="20"/>
-    </row>
-    <row r="17" ht="17.25" customHeight="1">
-      <c r="A17" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="30">
+      <c r="B17" s="26">
+        <v>30.0</v>
+      </c>
+      <c r="C17" s="27">
         <v>15.0</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="29" t="s">
+      <c r="F17" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="32"/>
-      <c r="W17" s="32"/>
-      <c r="X17" s="32"/>
-      <c r="Y17" s="32"/>
-      <c r="Z17" s="32"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="20"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B18" s="26">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
       <c r="C18" s="27">
         <v>16.0</v>
@@ -2849,10 +2849,10 @@
         <v>31</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G18" s="28"/>
       <c r="H18" s="20"/>
@@ -2877,7 +2877,7 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B19" s="26">
         <v>30.0</v>
@@ -2889,12 +2889,12 @@
         <v>31</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="G19" s="28"/>
+        <v>70</v>
+      </c>
+      <c r="G19" s="33"/>
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
@@ -2917,10 +2917,10 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B20" s="26">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
       <c r="C20" s="27">
         <v>18.0</v>
@@ -2929,12 +2929,12 @@
         <v>31</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" s="33"/>
+        <v>72</v>
+      </c>
+      <c r="G20" s="28"/>
       <c r="H20" s="20"/>
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
@@ -2957,138 +2957,121 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B21" s="26">
-        <v>31.0</v>
-      </c>
-      <c r="C21" s="27">
+        <v>33.0</v>
+      </c>
+      <c r="C21" s="34">
         <v>19.0</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>31</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G21" s="28"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="20"/>
-      <c r="U21" s="20"/>
-      <c r="V21" s="20"/>
-      <c r="W21" s="20"/>
-      <c r="X21" s="20"/>
-      <c r="Y21" s="20"/>
-      <c r="Z21" s="20"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B22" s="26">
-        <v>34.0</v>
+        <v>33.0</v>
       </c>
       <c r="C22" s="34">
         <v>20.0</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>78</v>
+        <v>47</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>76</v>
       </c>
       <c r="G22" s="28"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B23" s="26">
-        <v>34.0</v>
+        <v>33.0</v>
       </c>
       <c r="C23" s="34">
         <v>21.0</v>
       </c>
       <c r="D23" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" ht="15.0" customHeight="1">
+      <c r="A24" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="26">
+        <v>33.0</v>
+      </c>
+      <c r="C24" s="37">
+        <v>22.0</v>
+      </c>
+      <c r="D24" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="F23" s="36" t="s">
+      <c r="E24" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="G23" s="28"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="26">
-        <v>34.0</v>
-      </c>
-      <c r="C24" s="34">
+      <c r="F24" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="26">
         <v>22.0</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="G24" s="33" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" ht="15.0" customHeight="1">
-      <c r="A25" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="26">
-        <v>34.0</v>
-      </c>
-      <c r="C25" s="37">
+      <c r="C25" s="34">
         <v>23.0</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>47</v>
       </c>
       <c r="E25" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="F25" s="26" t="s">
+      <c r="G25" s="33" t="s">
         <v>85</v>
-      </c>
-      <c r="G25" s="33" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B26" s="26">
-        <v>23.0</v>
+        <v>9.0</v>
       </c>
       <c r="C26" s="34">
         <v>24.0</v>
@@ -3097,21 +3080,19 @@
         <v>47</v>
       </c>
       <c r="E26" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="F26" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="G26" s="33" t="s">
-        <v>89</v>
-      </c>
+      <c r="G26" s="28"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B27" s="26">
-        <v>9.0</v>
+        <v>33.0</v>
       </c>
       <c r="C27" s="34">
         <v>25.0</v>
@@ -3120,84 +3101,84 @@
         <v>47</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G27" s="28"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B28" s="26">
-        <v>34.0</v>
+        <v>7.0</v>
       </c>
       <c r="C28" s="34">
         <v>26.0</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="F28" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="G28" s="28"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B29" s="26">
-        <v>7.0</v>
+        <v>30.0</v>
       </c>
       <c r="C29" s="34">
         <v>27.0</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="F29" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="G29" s="33" t="s">
-        <v>96</v>
-      </c>
+      <c r="G29" s="28"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B30" s="26">
-        <v>31.0</v>
+        <v>6.0</v>
       </c>
       <c r="C30" s="34">
         <v>28.0</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="F30" s="39" t="s">
-        <v>98</v>
+        <v>31</v>
+      </c>
+      <c r="E30" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30" s="38" t="s">
+        <v>96</v>
       </c>
       <c r="G30" s="28"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B31" s="26">
-        <v>6.0</v>
+        <v>28.0</v>
       </c>
       <c r="C31" s="34">
         <v>29.0</v>
@@ -3205,104 +3186,104 @@
       <c r="D31" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="40" t="s">
-        <v>99</v>
+      <c r="E31" s="38" t="s">
+        <v>97</v>
       </c>
       <c r="F31" s="38" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G31" s="28"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="26">
-        <v>29.0</v>
+        <v>64</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>30</v>
       </c>
       <c r="C32" s="34">
         <v>30.0</v>
       </c>
-      <c r="D32" s="17" t="s">
-        <v>31</v>
+      <c r="D32" s="38" t="s">
+        <v>47</v>
       </c>
       <c r="E32" s="38" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F32" s="38" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G32" s="28"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>30</v>
+        <v>64</v>
+      </c>
+      <c r="B33" s="26">
+        <v>30.0</v>
       </c>
       <c r="C33" s="34">
         <v>31.0</v>
       </c>
-      <c r="D33" s="38" t="s">
-        <v>47</v>
+      <c r="D33" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="E33" s="38" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F33" s="38" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G33" s="28"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" s="26">
-        <v>31.0</v>
+        <v>64</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>30</v>
       </c>
       <c r="C34" s="34">
         <v>32.0</v>
       </c>
-      <c r="D34" s="17" t="s">
-        <v>37</v>
+      <c r="D34" s="38" t="s">
+        <v>103</v>
       </c>
       <c r="E34" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="F34" s="38" t="s">
         <v>105</v>
-      </c>
-      <c r="F34" s="38" t="s">
-        <v>106</v>
       </c>
       <c r="G34" s="28"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>30</v>
+        <v>64</v>
+      </c>
+      <c r="B35" s="26">
+        <v>30.0</v>
       </c>
       <c r="C35" s="34">
         <v>33.0</v>
       </c>
-      <c r="D35" s="38" t="s">
-        <v>53</v>
+      <c r="D35" s="17" t="s">
+        <v>31</v>
       </c>
       <c r="E35" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="F35" s="38" t="s">
         <v>107</v>
-      </c>
-      <c r="F35" s="38" t="s">
-        <v>108</v>
       </c>
       <c r="G35" s="28"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B36" s="26">
-        <v>31.0</v>
+        <v>64</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>30</v>
       </c>
       <c r="C36" s="34">
         <v>34.0</v>
@@ -3310,20 +3291,20 @@
       <c r="D36" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="38" t="s">
+      <c r="E36" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="F36" s="40" t="s">
         <v>109</v>
-      </c>
-      <c r="F36" s="38" t="s">
-        <v>110</v>
       </c>
       <c r="G36" s="28"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>30</v>
+        <v>64</v>
+      </c>
+      <c r="B37" s="26">
+        <v>33.0</v>
       </c>
       <c r="C37" s="34">
         <v>35.0</v>
@@ -3331,26 +3312,28 @@
       <c r="D37" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E37" s="40" t="s">
+      <c r="E37" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="F37" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="F37" s="40" t="s">
+      <c r="G37" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="G37" s="28"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B38" s="26">
-        <v>34.0</v>
+        <v>25.0</v>
       </c>
       <c r="C38" s="34">
         <v>36.0</v>
       </c>
-      <c r="D38" s="17" t="s">
-        <v>31</v>
+      <c r="D38" s="34" t="s">
+        <v>36</v>
       </c>
       <c r="E38" s="29" t="s">
         <v>113</v>
@@ -3358,22 +3341,20 @@
       <c r="F38" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="G38" s="33" t="s">
-        <v>115</v>
-      </c>
+      <c r="G38" s="33"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B39" s="26">
-        <v>26.0</v>
-      </c>
-      <c r="C39" s="34">
+        <v>64</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="41">
         <v>37.0</v>
       </c>
-      <c r="D39" s="34" t="s">
-        <v>36</v>
+      <c r="D39" s="42" t="s">
+        <v>115</v>
       </c>
       <c r="E39" s="29" t="s">
         <v>116</v>
@@ -3381,93 +3362,95 @@
       <c r="F39" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="G39" s="33"/>
+      <c r="G39" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="43"/>
+      <c r="P39" s="43"/>
+      <c r="Q39" s="43"/>
+      <c r="R39" s="43"/>
+      <c r="S39" s="43"/>
+      <c r="T39" s="43"/>
+      <c r="U39" s="43"/>
+      <c r="V39" s="43"/>
+      <c r="W39" s="43"/>
+      <c r="X39" s="43"/>
+      <c r="Y39" s="43"/>
+      <c r="Z39" s="43"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B40" s="29" t="s">
+      <c r="A40" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="41">
+      <c r="C40" s="27">
         <v>38.0</v>
       </c>
-      <c r="D40" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="E40" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="F40" s="29" t="s">
+      <c r="D40" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="G40" s="31" t="s">
+      <c r="F40" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="43"/>
-      <c r="M40" s="43"/>
-      <c r="N40" s="43"/>
-      <c r="O40" s="43"/>
-      <c r="P40" s="43"/>
-      <c r="Q40" s="43"/>
-      <c r="R40" s="43"/>
-      <c r="S40" s="43"/>
-      <c r="T40" s="43"/>
-      <c r="U40" s="43"/>
-      <c r="V40" s="43"/>
-      <c r="W40" s="43"/>
-      <c r="X40" s="43"/>
-      <c r="Y40" s="43"/>
-      <c r="Z40" s="43"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="20"/>
+      <c r="T40" s="20"/>
+      <c r="U40" s="20"/>
+      <c r="V40" s="20"/>
+      <c r="W40" s="20"/>
+      <c r="X40" s="20"/>
+      <c r="Y40" s="20"/>
+      <c r="Z40" s="20"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="40" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B41" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="27">
+      <c r="C41" s="34">
         <v>39.0</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E41" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="F41" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="F41" s="26" t="s">
+      <c r="G41" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="G41" s="28"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="20"/>
-      <c r="S41" s="20"/>
-      <c r="T41" s="20"/>
-      <c r="U41" s="20"/>
-      <c r="V41" s="20"/>
-      <c r="W41" s="20"/>
-      <c r="X41" s="20"/>
-      <c r="Y41" s="20"/>
-      <c r="Z41" s="20"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="40" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B42" s="26" t="s">
         <v>30</v>
@@ -3476,24 +3459,24 @@
         <v>40.0</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E42" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="F42" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="F42" s="38" t="s">
+      <c r="G42" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="G42" s="33" t="s">
-        <v>127</v>
-      </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>30</v>
+      <c r="A43" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" s="26">
+        <v>40.0</v>
       </c>
       <c r="C43" s="34">
         <v>41.0</v>
@@ -3502,21 +3485,19 @@
         <v>31</v>
       </c>
       <c r="E43" s="38" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F43" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="G43" s="33" t="s">
-        <v>129</v>
-      </c>
+      <c r="G43" s="28"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="26" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B44" s="26">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="C44" s="34">
         <v>42.0</v>
@@ -3525,201 +3506,203 @@
         <v>31</v>
       </c>
       <c r="E44" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="F44" s="38" t="s">
         <v>130</v>
-      </c>
-      <c r="F44" s="38" t="s">
-        <v>131</v>
       </c>
       <c r="G44" s="28"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="B45" s="26">
-        <v>41.0</v>
+        <v>119</v>
+      </c>
+      <c r="B45" s="37">
+        <v>39.0</v>
       </c>
       <c r="C45" s="34">
         <v>43.0</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="E45" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="F45" s="38" t="s">
         <v>132</v>
-      </c>
-      <c r="F45" s="38" t="s">
-        <v>133</v>
       </c>
       <c r="G45" s="28"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="B46" s="37">
-        <v>40.0</v>
+        <v>119</v>
+      </c>
+      <c r="B46" s="26">
+        <v>45.0</v>
       </c>
       <c r="C46" s="34">
         <v>44.0</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E46" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="F46" s="26" t="s">
         <v>134</v>
-      </c>
-      <c r="F46" s="38" t="s">
-        <v>135</v>
       </c>
       <c r="G46" s="28"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="26" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B47" s="26">
-        <v>46.0</v>
+        <v>38.0</v>
       </c>
       <c r="C47" s="34">
         <v>45.0</v>
       </c>
-      <c r="D47" s="17" t="s">
-        <v>37</v>
+      <c r="D47" s="42" t="s">
+        <v>31</v>
       </c>
       <c r="E47" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="F47" s="26" t="s">
         <v>136</v>
-      </c>
-      <c r="F47" s="26" t="s">
-        <v>137</v>
       </c>
       <c r="G47" s="28"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="26" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B48" s="26">
-        <v>39.0</v>
+        <v>45.0</v>
       </c>
       <c r="C48" s="34">
         <v>46.0</v>
       </c>
-      <c r="D48" s="42" t="s">
-        <v>31</v>
+      <c r="D48" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="E48" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="F48" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="F48" s="26" t="s">
-        <v>139</v>
-      </c>
       <c r="G48" s="28"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="26" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B49" s="26">
-        <v>46.0</v>
+        <v>45.0</v>
       </c>
       <c r="C49" s="34">
         <v>47.0</v>
       </c>
-      <c r="D49" s="17" t="s">
+      <c r="D49" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="E49" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="F49" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G49" s="28"/>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B50" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="C50" s="27">
+        <v>48.0</v>
+      </c>
+      <c r="D50" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E49" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="F49" s="26" t="s">
+      <c r="E50" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G49" s="28"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c r="A50" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="B50" s="26">
-        <v>46.0</v>
-      </c>
-      <c r="C50" s="34">
-        <v>48.0</v>
-      </c>
-      <c r="D50" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="E50" s="26" t="s">
+      <c r="F50" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="F50" s="26" t="s">
+      <c r="G50" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="G50" s="28"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="20"/>
+      <c r="Q50" s="20"/>
+      <c r="R50" s="20"/>
+      <c r="S50" s="20"/>
+      <c r="T50" s="20"/>
+      <c r="U50" s="20"/>
+      <c r="V50" s="20"/>
+      <c r="W50" s="20"/>
+      <c r="X50" s="20"/>
+      <c r="Y50" s="20"/>
+      <c r="Z50" s="20"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="26" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B51" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="C51" s="27">
+        <v>47.0</v>
+      </c>
+      <c r="C51" s="34">
         <v>49.0</v>
       </c>
       <c r="D51" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E51" s="26" t="s">
+      <c r="E51" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="F51" s="44" t="s">
+      <c r="F51" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="G51" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="20"/>
-      <c r="N51" s="20"/>
-      <c r="O51" s="20"/>
-      <c r="P51" s="20"/>
-      <c r="Q51" s="20"/>
-      <c r="R51" s="20"/>
-      <c r="S51" s="20"/>
-      <c r="T51" s="20"/>
-      <c r="U51" s="20"/>
-      <c r="V51" s="20"/>
-      <c r="W51" s="20"/>
-      <c r="X51" s="20"/>
-      <c r="Y51" s="20"/>
-      <c r="Z51" s="20"/>
+      <c r="G51" s="33"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="B52" s="26">
-        <v>48.0</v>
+        <v>119</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>30</v>
       </c>
       <c r="C52" s="34">
         <v>50.0</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E52" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E52" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="F52" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="F52" s="29" t="s">
+      <c r="G52" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="G52" s="33"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="46"/>
@@ -4262,13 +4245,8 @@
       <c r="G112" s="28"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="46"/>
-      <c r="B113" s="46"/>
-      <c r="C113" s="47"/>
       <c r="D113" s="48"/>
-      <c r="E113" s="46"/>
-      <c r="F113" s="46"/>
-      <c r="G113" s="28"/>
+      <c r="G113" s="49"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="D114" s="48"/>
@@ -7781,10 +7759,6 @@
     <row r="991" ht="15.75" customHeight="1">
       <c r="D991" s="48"/>
       <c r="G991" s="49"/>
-    </row>
-    <row r="992" ht="15.75" customHeight="1">
-      <c r="D992" s="48"/>
-      <c r="G992" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="5">
